--- a/sprints/Team1Product Backlog.xlsx
+++ b/sprints/Team1Product Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scarrig1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shawn\Documents\School\CS 3212 SWE II\Project\UWG-SE2-Spring22-Team1\sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81A0CA4-466E-4394-B51F-A2FEE2D53FA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48700014-8D14-4214-A134-25CAE84261F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Priority</t>
   </si>
@@ -110,6 +110,18 @@
   </si>
   <si>
     <t>I can maintain enforcing good habits and breaking bad ones</t>
+  </si>
+  <si>
+    <t>Finishing all daily tasks, weekly tasks, etc.</t>
+  </si>
+  <si>
+    <t>to be notified when completing a milestone</t>
+  </si>
+  <si>
+    <t>Milestones:</t>
+  </si>
+  <si>
+    <t>I can feel motivated to complete all my tasks for a specified period</t>
   </si>
 </sst>
 </file>
@@ -151,9 +163,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A2" sqref="A2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,9 +458,10 @@
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="82.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,9 +475,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -474,10 +488,16 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -489,63 +509,63 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -553,56 +573,70 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
     <sortCondition ref="A2:A11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sprints/Team1Product Backlog.xlsx
+++ b/sprints/Team1Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shawn\Documents\School\CS 3212 SWE II\Project\UWG-SE2-Spring22-Team1\sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48700014-8D14-4214-A134-25CAE84261F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6A5748-C7BC-424A-AA6F-E3D04252C207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Priority</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>I can feel motivated to complete all my tasks for a specified period</t>
+  </si>
+  <si>
+    <t>to create an account</t>
+  </si>
+  <si>
+    <t>I can save, access, and update my habit progress</t>
   </si>
 </sst>
 </file>
@@ -146,7 +152,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,13 +171,22 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -182,6 +197,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9FF1AD47-6587-496D-969B-F5933E463582}" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D13" xr:uid="{9FF1AD47-6587-496D-969B-F5933E463582}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
+    <sortCondition ref="A1:A13"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{0339C596-80F3-4AB3-92CF-95B15F83CB43}" name="Priority"/>
+    <tableColumn id="2" xr3:uid="{BD12005D-1B10-4B1F-BA3C-6BA28898D956}" name="As a…"/>
+    <tableColumn id="3" xr3:uid="{C745AC81-5470-452E-A20A-54E23F3F5EAF}" name="I want…"/>
+    <tableColumn id="4" xr3:uid="{A3C0147B-052C-4B2F-A92F-0E93A737D812}" name="So that…"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,14 +483,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="82.7109375" bestFit="1" customWidth="1"/>
@@ -462,36 +499,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -503,10 +540,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -517,24 +554,24 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -545,10 +582,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -559,80 +596,94 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -640,5 +691,8 @@
     <sortCondition ref="A2:A11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/sprints/Team1Product Backlog.xlsx
+++ b/sprints/Team1Product Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shawn\Documents\School\CS 3212 SWE II\Project\UWG-SE2-Spring22-Team1\sprints\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f3a8c7ed36ef20a/Documents/GitHub/UWG-SE2-Spring22-Team1/sprints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6A5748-C7BC-424A-AA6F-E3D04252C207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{1A6A5748-C7BC-424A-AA6F-E3D04252C207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DC5F95E-03F9-4A80-8BF6-5AC6812C8131}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Priority</t>
   </si>
@@ -52,36 +52,6 @@
     <t>User</t>
   </si>
   <si>
-    <t>to retrieve habits</t>
-  </si>
-  <si>
-    <t>I can remember the habits I want to break and get into</t>
-  </si>
-  <si>
-    <t>to add a habit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I can access the habit and update </t>
-  </si>
-  <si>
-    <t>to modify a habit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I can update the system when I change my habits </t>
-  </si>
-  <si>
-    <t>to remove a habit</t>
-  </si>
-  <si>
-    <t>I can remove habits that i'm no longer interested in</t>
-  </si>
-  <si>
-    <t>to gain coins from completing my habit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I can feel rewarded by my efforts in the application </t>
-  </si>
-  <si>
     <t>to play a sudoku game</t>
   </si>
   <si>
@@ -122,12 +92,6 @@
   </si>
   <si>
     <t>I can feel motivated to complete all my tasks for a specified period</t>
-  </si>
-  <si>
-    <t>to create an account</t>
-  </si>
-  <si>
-    <t>I can save, access, and update my habit progress</t>
   </si>
 </sst>
 </file>
@@ -483,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,55 +478,55 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -576,21 +540,21 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -600,90 +564,6 @@
       </c>
       <c r="D7" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
